--- a/dataset/professional_roles.xlsx
+++ b/dataset/professional_roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\проект_стажировкa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E7CAC0-D8D2-4C2A-8D7A-BEC1FD50CE95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2815340-7DF3-4CFB-972A-BE6E3AD5E6E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="0" windowWidth="27315" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -424,6 +424,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1488,7 +1493,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,16 +1616,18 @@
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="13">
         <v>86</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="14">
         <v>2933</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">

--- a/dataset/professional_roles.xlsx
+++ b/dataset/professional_roles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\проект_стажировкa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2815340-7DF3-4CFB-972A-BE6E3AD5E6E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE4E2C5-4732-4D59-8C3E-0763E56AFA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="0" windowWidth="27315" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$96</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1489,11 +1497,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1526,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>96</v>
       </c>
@@ -1529,7 +1538,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>111</v>
       </c>
@@ -1541,7 +1550,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>10</v>
       </c>
@@ -1567,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>121</v>
       </c>
@@ -1579,7 +1588,7 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>107</v>
       </c>
@@ -1591,7 +1600,7 @@
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>113</v>
       </c>
@@ -1603,7 +1612,7 @@
       </c>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>34</v>
       </c>
@@ -1629,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>116</v>
       </c>
@@ -1641,7 +1650,7 @@
       </c>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>124</v>
       </c>
@@ -1653,7 +1662,7 @@
       </c>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>114</v>
       </c>
@@ -1665,7 +1674,7 @@
       </c>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>104</v>
       </c>
@@ -1677,7 +1686,7 @@
       </c>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>112</v>
       </c>
@@ -1703,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>73</v>
       </c>
@@ -1713,11 +1722,9 @@
       <c r="C17" s="4">
         <v>563</v>
       </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>125</v>
       </c>
@@ -1729,7 +1736,7 @@
       </c>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>36</v>
       </c>
@@ -1741,7 +1748,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>126</v>
       </c>
@@ -1753,7 +1760,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>12</v>
       </c>
@@ -1779,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>25</v>
       </c>
@@ -1791,7 +1798,7 @@
       </c>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>40</v>
       </c>
@@ -1817,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>70</v>
       </c>
@@ -1827,11 +1834,9 @@
       <c r="C26" s="4">
         <v>127</v>
       </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>48</v>
       </c>
@@ -1857,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>68</v>
       </c>
@@ -1867,11 +1872,9 @@
       <c r="C29" s="4">
         <v>64</v>
       </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>14</v>
       </c>
@@ -1881,9 +1884,7 @@
       <c r="C30" s="4">
         <v>52</v>
       </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -1899,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>54</v>
       </c>
@@ -1909,11 +1910,9 @@
       <c r="C32" s="4">
         <v>22</v>
       </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>80</v>
       </c>
@@ -1923,9 +1922,7 @@
       <c r="C33" s="4">
         <v>19</v>
       </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -1955,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>93</v>
       </c>
@@ -1965,11 +1962,9 @@
       <c r="C36" s="4">
         <v>14</v>
       </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>132</v>
       </c>
@@ -1979,11 +1974,9 @@
       <c r="C37" s="4">
         <v>12</v>
       </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>49</v>
       </c>
@@ -1995,7 +1988,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>143</v>
       </c>
@@ -2007,7 +2000,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>99</v>
       </c>
@@ -2017,11 +2010,9 @@
       <c r="C40" s="4">
         <v>10</v>
       </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>3</v>
       </c>
@@ -2031,9 +2022,7 @@
       <c r="C41" s="4">
         <v>8</v>
       </c>
-      <c r="D41" s="6">
-        <v>1</v>
-      </c>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
@@ -2063,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>16</v>
       </c>
@@ -2073,11 +2062,9 @@
       <c r="C44" s="4">
         <v>7</v>
       </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>37</v>
       </c>
@@ -2087,11 +2074,9 @@
       <c r="C45" s="4">
         <v>7</v>
       </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>66</v>
       </c>
@@ -2101,11 +2086,9 @@
       <c r="C46" s="4">
         <v>7</v>
       </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>108</v>
       </c>
@@ -2115,11 +2098,9 @@
       <c r="C47" s="4">
         <v>7</v>
       </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>144</v>
       </c>
@@ -2129,9 +2110,7 @@
       <c r="C48" s="4">
         <v>7</v>
       </c>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
@@ -2147,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>78</v>
       </c>
@@ -2159,7 +2138,7 @@
       </c>
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>82</v>
       </c>
@@ -2169,11 +2148,9 @@
       <c r="C51" s="4">
         <v>6</v>
       </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>83</v>
       </c>
@@ -2183,11 +2160,9 @@
       <c r="C52" s="4">
         <v>6</v>
       </c>
-      <c r="D52" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>110</v>
       </c>
@@ -2197,11 +2172,9 @@
       <c r="C53" s="4">
         <v>6</v>
       </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>8</v>
       </c>
@@ -2227,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>30</v>
       </c>
@@ -2323,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>84</v>
       </c>
@@ -2405,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>88</v>
       </c>
@@ -2415,11 +2388,9 @@
       <c r="C69" s="4">
         <v>3</v>
       </c>
-      <c r="D69" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>105</v>
       </c>
@@ -2429,9 +2400,7 @@
       <c r="C70" s="4">
         <v>3</v>
       </c>
-      <c r="D70" s="6">
-        <v>1</v>
-      </c>
+      <c r="D70" s="6"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
@@ -2531,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>26</v>
       </c>
@@ -2850,11 +2819,18 @@
       <c r="D114"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D96" xr:uid="{AE6ACAC2-D7A4-40F2-A6AF-E15FC9CDF2B0}"/>
+  <autoFilter ref="A1:D96" xr:uid="{AE6ACAC2-D7A4-40F2-A6AF-E15FC9CDF2B0}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
     <sortCondition ref="B2:B96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
